--- a/data/long_razon/P16-Edad-long_razon.xlsx
+++ b/data/long_razon/P16-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-47,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-37,54%</t>
+          <t>-19,46%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>117,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-40,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-13,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-21,02%</t>
+          <t>58,07%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>17,0%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 82,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-72,74; -8,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,09; 93,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-59,85; -9,13</t>
+          <t>-63,3; 58,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,25; 289,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-62,46; -5,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-36,03; 16,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 50,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-45,25; 12,27</t>
+          <t>3,69; 145,3</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-21,85; 82,08</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-20,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>7,49%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>53,92%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,38; 149,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,28; 37,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,31; 97,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,23; 78,25</t>
+          <t>0,75; 320,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 138,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 121,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,05; 73,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,69; 49,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 74,38</t>
+          <t>-30,74; 69,54</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 161,62</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>75,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,23%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>86,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>63,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>62,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>68,4%</t>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>15,1%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-44,21; 110,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 125,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,47; 178,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-42,32; 20,66</t>
+          <t>-31,89; 117,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,83; 159,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,74; 118,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,26; 42,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,92; 115,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,02; 120,0</t>
+          <t>-25,16; 48,21</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-15,82; 55,94</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-21,18%</t>
+          <t>76,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>81,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>104,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46,97%</t>
+          <t>51,89%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>63,42%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1273,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,34; 68,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 72,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 58,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,41; 13,17</t>
+          <t>17,13; 180,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,99; 179,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,27; 183,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 23,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 90,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,2; 87,31</t>
+          <t>7,98; 115,34</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>21,71; 118,27</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1360,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>37,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>57,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>84,15%</t>
+          <t>44,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>84,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>57,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>64,7%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>53,76%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1443,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 120,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-36,88; 61,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,39; 146,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,49; 201,2</t>
+          <t>-15,12; 134,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,78; 213,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 97,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,29; 120,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 79,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,46; 85,75</t>
+          <t>-1,67; 180,83</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>6,12; 117,52</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1530,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>97,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-14,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>166,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-8,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>54,22%</t>
+          <t>108,88%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>104,13%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1613,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 112,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,25; 82,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,09; 48,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 102,6</t>
+          <t>-14,55; 332,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,15; 35,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>68,27; 369,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 83,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,24; 34,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,17; 123,64</t>
+          <t>19,65; 275,16</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>26,23; 216,95</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1700,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>48,54%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>51,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>49,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>43,99%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>46,18%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1783,99 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 50,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,36; 16,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 44,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 17,66</t>
+          <t>14,35; 94,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,67; 85,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,48; 76,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 26,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,53; 38,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,88; 52,24</t>
+          <t>22,4; 75,99</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>25,03; 73,27</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P16-Edad-long_razon.xlsx
+++ b/data/long_razon/P16-Edad-long_razon.xlsx
@@ -683,27 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.1556636971846934</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.5207155489277941</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.1124691384369987</v>
+      </c>
       <c r="F4" s="5" t="n">
         <v>-0.2677550652936511</v>
       </c>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="n">
+        <v>0.3887552920002912</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.3556234089962126</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.310215575395199</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.4060407965520719</v>
+      </c>
       <c r="K4" s="5" t="n">
         <v>0.6311817353441932</v>
       </c>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="n">
+        <v>0.4805455069334309</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.1448269138829617</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.0170004424844698</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.2095422044672199</v>
+      </c>
       <c r="P4" s="5" t="n">
         <v>0.1459992582558068</v>
       </c>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="Q4" s="5" t="n">
+        <v>0.4324336505799476</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -712,27 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.261394494065803</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.7512215236421482</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.3948280130106772</v>
+      </c>
       <c r="F5" s="5" t="n">
         <v>-0.6618433302213226</v>
       </c>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="n">
+        <v>-0.4341475182504984</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.5856632746254613</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.3139896037761196</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.6481190605498545</v>
+      </c>
       <c r="K5" s="5" t="n">
         <v>0.06590097765055397</v>
       </c>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="n">
+        <v>-0.2210709344139069</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.3758229946273683</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.334834588890865</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.473399886956277</v>
+      </c>
       <c r="P5" s="5" t="n">
         <v>-0.2395136938229592</v>
       </c>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="Q5" s="5" t="n">
+        <v>-0.09023333765352445</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -741,27 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.7779154556981166</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.1625079991786136</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.091151361901947</v>
+      </c>
       <c r="F6" s="5" t="n">
         <v>0.5027163895083873</v>
       </c>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="n">
+        <v>2.42940102622565</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.0001792533739956271</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>3.054156706240308</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>-0.08297911874390311</v>
+      </c>
       <c r="K6" s="5" t="n">
         <v>1.526103062014251</v>
       </c>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="n">
+        <v>1.917825493743929</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.1947979576243515</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.4938370698431007</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.129681781520141</v>
+      </c>
       <c r="P6" s="5" t="n">
         <v>0.7546455779998191</v>
       </c>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="n">
+        <v>1.4753948289767</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -774,27 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.1418734800457606</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.1492805577050408</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.03285630704970112</v>
+      </c>
       <c r="F7" s="5" t="n">
         <v>0.9247272823770952</v>
       </c>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="n">
+        <v>0.1080461697732743</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.08356535278559418</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.4557799773555977</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.5303091904957106</v>
+      </c>
       <c r="K7" s="5" t="n">
         <v>0.05814711769120271</v>
       </c>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="n">
+        <v>0.2578170620925546</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.1119366030346989</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.06762674965096357</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.2422770822746947</v>
+      </c>
       <c r="P7" s="5" t="n">
         <v>0.5149444758313917</v>
       </c>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="Q7" s="5" t="n">
+        <v>0.1617698209411145</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -803,27 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.4944540997616661</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.544741326450254</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3728935338638353</v>
+      </c>
       <c r="F8" s="5" t="n">
         <v>0.001688604171572441</v>
       </c>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="n">
+        <v>-0.5899592209983507</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.271814496604384</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.0753347042089319</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.007073305600384647</v>
+      </c>
       <c r="K8" s="5" t="n">
         <v>-0.3234782984097215</v>
       </c>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="n">
+        <v>-0.2894121810967053</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.2773492485792213</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.2807425550499214</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.07830078520957852</v>
+      </c>
       <c r="P8" s="5" t="n">
         <v>-0.0149230268627875</v>
       </c>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="Q8" s="5" t="n">
+        <v>-0.3785879027394645</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -832,27 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>1.155574614632032</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.4624504527951241</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.6384546583207626</v>
+      </c>
       <c r="F9" s="5" t="n">
         <v>3.161929114948843</v>
       </c>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="n">
+        <v>1.353478165185871</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.7293104801619753</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.443023735956548</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.212473284018577</v>
+      </c>
       <c r="K9" s="5" t="n">
         <v>0.6906887487155393</v>
       </c>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="n">
+        <v>1.172237101749208</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.6317302695075097</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.5428818161989555</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.7433153957522455</v>
+      </c>
       <c r="P9" s="5" t="n">
         <v>1.598401261095775</v>
       </c>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="Q9" s="5" t="n">
+        <v>0.9375355283147858</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -865,27 +1009,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.5210590221845899</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.4110697337982626</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.7332136174364964</v>
+      </c>
       <c r="F10" s="5" t="n">
         <v>0.2622679517754956</v>
       </c>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>1.274393534080018</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.1224713775449963</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.8636307026424206</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.6209356928891667</v>
+      </c>
       <c r="K10" s="5" t="n">
         <v>0.07729123143897827</v>
       </c>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="n">
+        <v>0.3440962346390536</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.1610944464123258</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.6422874662842336</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.6692193283868707</v>
+      </c>
       <c r="P10" s="5" t="n">
         <v>0.1540503043830965</v>
       </c>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="Q10" s="5" t="n">
+        <v>0.770411933332559</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -894,27 +1062,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.06865698605476993</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.1007456182979272</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1226094410925465</v>
+      </c>
       <c r="F11" s="5" t="n">
         <v>-0.3371812598485219</v>
       </c>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>0.2961352321286808</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.3702530818859876</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.2995704066757746</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.2142264922057682</v>
+      </c>
       <c r="K11" s="5" t="n">
         <v>-0.24027193298011</v>
       </c>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="n">
+        <v>-0.2036517035897588</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.1661329828848321</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.2685459866709222</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>0.2997631496567137</v>
+      </c>
       <c r="P11" s="5" t="n">
         <v>-0.1545717189863686</v>
       </c>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="Q11" s="5" t="n">
+        <v>0.2442297922423659</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -923,27 +1115,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>1.692362242216674</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.259128409806566</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.809021632130438</v>
+      </c>
       <c r="F12" s="5" t="n">
         <v>1.145242332173667</v>
       </c>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>3.209296053722977</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.2941615369055983</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.602849361831897</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.198637334196481</v>
+      </c>
       <c r="K12" s="5" t="n">
         <v>0.5040156703467127</v>
       </c>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="n">
+        <v>1.381934590185108</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.6909452340649702</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.182486543508313</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>1.187309637413425</v>
+      </c>
       <c r="P12" s="5" t="n">
         <v>0.569952278881117</v>
       </c>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="Q12" s="5" t="n">
+        <v>1.804246183682491</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -956,27 +1172,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.163722733792719</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.1023616941512977</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.07957106697060863</v>
+      </c>
       <c r="F13" s="5" t="n">
         <v>0.7805222992170315</v>
       </c>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="n">
+        <v>0.02052184970893902</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.2094701818614388</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.7748238914331568</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>1.06506224871375</v>
+      </c>
       <c r="K13" s="5" t="n">
         <v>0.4883201463188465</v>
       </c>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="n">
+        <v>0.09596241655378863</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.0420802108034714</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.3677146601883432</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.4708720323815418</v>
+      </c>
       <c r="P13" s="5" t="n">
         <v>0.6253251790483062</v>
       </c>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="Q13" s="5" t="n">
+        <v>0.05662982900706279</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -985,27 +1225,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.2208402059053562</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2771466088668207</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2676124688571688</v>
+      </c>
       <c r="F14" s="5" t="n">
         <v>0.1956889000792694</v>
       </c>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="n">
+        <v>-0.5016973628275379</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.490639016611555</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.1581086459981005</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.4595568453011973</v>
+      </c>
       <c r="K14" s="5" t="n">
         <v>0.0418806579165823</v>
       </c>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="n">
+        <v>-0.3639615980548619</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.2588602529378897</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.02308097892671636</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>0.1171483023077894</v>
+      </c>
       <c r="P14" s="5" t="n">
         <v>0.2128061730004094</v>
       </c>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="Q14" s="5" t="n">
+        <v>-0.281040211744462</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -1014,27 +1278,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.7414328702265781</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.7003590193791985</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.5590082095289526</v>
+      </c>
       <c r="F15" s="5" t="n">
         <v>1.820949488088463</v>
       </c>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="n">
+        <v>0.962934006536651</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.1143883164772391</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.694060404066258</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>1.889351125785889</v>
+      </c>
       <c r="K15" s="5" t="n">
         <v>1.104103081112305</v>
       </c>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="n">
+        <v>0.8037964938991664</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.2640278768905687</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.7813942276156302</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.8962640059017667</v>
+      </c>
       <c r="P15" s="5" t="n">
         <v>1.18941178260428</v>
       </c>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="Q15" s="5" t="n">
+        <v>0.6188880502134483</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1047,27 +1335,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>0.3427309908335718</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.01389786333674869</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.5661810432862033</v>
+      </c>
       <c r="F16" s="5" t="n">
         <v>0.4251450042324026</v>
       </c>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
+      <c r="G16" s="5" t="n">
+        <v>0.3930254936456794</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.6906930255255479</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.8071079929965504</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.2260469896354018</v>
+      </c>
       <c r="K16" s="5" t="n">
         <v>0.6081536092106008</v>
       </c>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
+      <c r="L16" s="5" t="n">
+        <v>0.193215159904668</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.4873558895773542</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.3066030668449505</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0.3879124649622246</v>
+      </c>
       <c r="P16" s="5" t="n">
         <v>0.5071695043447472</v>
       </c>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="Q16" s="5" t="n">
+        <v>0.2842442713041383</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -1076,27 +1388,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.2108396017809601</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.3619584610752503</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.04385067733999318</v>
+      </c>
       <c r="F17" s="5" t="n">
         <v>-0.1642657572941328</v>
       </c>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
+      <c r="G17" s="5" t="n">
+        <v>-0.2736438716376217</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>0.0747860891686377</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0.117641111379758</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.2163112151713273</v>
+      </c>
       <c r="K17" s="5" t="n">
         <v>-0.05420559732306419</v>
       </c>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
+      <c r="L17" s="5" t="n">
+        <v>-0.2583807974133944</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>0.05105773107778863</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.05958933027306473</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>0.02121688502970409</v>
+      </c>
       <c r="P17" s="5" t="n">
         <v>0.04417916641731064</v>
       </c>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="Q17" s="5" t="n">
+        <v>-0.121472890823097</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1105,27 +1441,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>1.154486417394356</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.5550475563746458</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.409445380295672</v>
+      </c>
       <c r="F18" s="5" t="n">
         <v>1.29281952570308</v>
       </c>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
+      <c r="G18" s="5" t="n">
+        <v>1.586337411811246</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>1.782387349387837</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>2.011353218692437</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.9223162345381279</v>
+      </c>
       <c r="K18" s="5" t="n">
         <v>1.715583638482491</v>
       </c>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
+      <c r="L18" s="5" t="n">
+        <v>1.020241508151456</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>1.140702895472994</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.752879923654491</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0.8901638057377412</v>
+      </c>
       <c r="P18" s="5" t="n">
         <v>1.132913870815727</v>
       </c>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="Q18" s="5" t="n">
+        <v>0.8074077721752448</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1138,27 +1498,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>0.1222457021290579</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.03241767626786723</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.1107466830644425</v>
+      </c>
       <c r="F19" s="5" t="n">
         <v>1.075398618012453</v>
       </c>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
+      <c r="G19" s="5" t="n">
+        <v>0.0967972201587995</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.3539689832604448</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>-0.06006274141010853</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>1.448358369074203</v>
+      </c>
       <c r="K19" s="5" t="n">
         <v>1.124187196478292</v>
       </c>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
+      <c r="L19" s="5" t="n">
+        <v>0.8058689474390467</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.2531386262123316</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>-0.02533351220662365</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>0.4860697758810199</v>
+      </c>
       <c r="P19" s="5" t="n">
         <v>1.104316300704954</v>
       </c>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="Q19" s="5" t="n">
+        <v>0.4638413309855549</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1167,27 +1551,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.3335717941098362</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.4790973926032713</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.4820146938733978</v>
+      </c>
       <c r="F20" s="5" t="n">
         <v>-0.09796243691081714</v>
       </c>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
+      <c r="G20" s="5" t="n">
+        <v>-0.4849227570961426</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.1531083378919966</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.4324842025257469</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>0.4477013532324038</v>
+      </c>
       <c r="K20" s="5" t="n">
         <v>0.1921789938554785</v>
       </c>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
+      <c r="L20" s="5" t="n">
+        <v>-0.175748301884451</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.1150865475793385</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.3547162990421255</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>0.0401993730853171</v>
+      </c>
       <c r="P20" s="5" t="n">
         <v>0.2981533807585053</v>
       </c>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="Q20" s="5" t="n">
+        <v>-0.1106075699032117</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1196,27 +1604,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>1.044899119735086</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.8829287258987601</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.4654938740374667</v>
+      </c>
       <c r="F21" s="5" t="n">
         <v>3.597566937660592</v>
       </c>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
+      <c r="G21" s="5" t="n">
+        <v>1.099502460604399</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1.048324987738402</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0.5321127221364959</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>3.139902549367206</v>
+      </c>
       <c r="K21" s="5" t="n">
         <v>2.903257186483671</v>
       </c>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
+      <c r="L21" s="5" t="n">
+        <v>2.726015045687933</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.8289091685320316</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.3878833048990079</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>1.125076409884874</v>
+      </c>
       <c r="P21" s="5" t="n">
         <v>2.39974133571222</v>
       </c>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="Q21" s="5" t="n">
+        <v>1.597340784631355</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1229,27 +1661,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>0.2433438093284221</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.05676817854248465</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1862079918467604</v>
+      </c>
       <c r="F22" s="5" t="n">
         <v>0.4647557794224185</v>
       </c>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
+      <c r="G22" s="5" t="n">
+        <v>0.3230047425477436</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.002224221302143201</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.564292550506168</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.4824790031645801</v>
+      </c>
       <c r="K22" s="5" t="n">
         <v>0.4470373310695894</v>
       </c>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
+      <c r="L22" s="5" t="n">
+        <v>0.359658568928405</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.1131464499219827</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.2151480822169862</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>0.3303455225430542</v>
+      </c>
       <c r="P22" s="5" t="n">
         <v>0.4556063909714893</v>
       </c>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="Q22" s="5" t="n">
+        <v>0.340557967521133</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1258,27 +1714,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.001639093867186973</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.252036593278975</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.005077814819643241</v>
+      </c>
       <c r="F23" s="5" t="n">
         <v>0.1277793664856587</v>
       </c>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
+      <c r="G23" s="5" t="n">
+        <v>-0.0124683155747445</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.1658130646395873</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.3043733820590594</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>0.22834695486106</v>
+      </c>
       <c r="K23" s="5" t="n">
         <v>0.2365813960388714</v>
       </c>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
+      <c r="L23" s="5" t="n">
+        <v>0.08527620961298021</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.02243127890993745</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.0494294017209237</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>0.1779168533930078</v>
+      </c>
       <c r="P23" s="5" t="n">
         <v>0.2413018097774752</v>
       </c>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="Q23" s="5" t="n">
+        <v>0.1068170173787806</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1287,27 +1767,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.5355947987958448</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1680153637803267</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.460952636465393</v>
+      </c>
       <c r="F24" s="5" t="n">
         <v>0.9143158275709832</v>
       </c>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
+      <c r="G24" s="5" t="n">
+        <v>0.7942073449075866</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.1908267002986986</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.9467521918736536</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.7529877566032713</v>
+      </c>
       <c r="K24" s="5" t="n">
         <v>0.7754770292734634</v>
       </c>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
+      <c r="L24" s="5" t="n">
+        <v>0.7032744316854649</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.278527830119179</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.392080436025026</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>0.5325569442807078</v>
+      </c>
       <c r="P24" s="5" t="n">
         <v>0.7257793047511951</v>
       </c>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="Q24" s="5" t="n">
+        <v>0.599480237097413</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
